--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="6030"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,42 +16,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>模块</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>是否运行</t>
-  </si>
-  <si>
-    <t>请求类型</t>
-  </si>
-  <si>
-    <t>是否携带header</t>
-  </si>
-  <si>
-    <t>case依赖</t>
-  </si>
-  <si>
-    <t>依赖的返回数据</t>
-  </si>
-  <si>
-    <t>数据依赖字段</t>
-  </si>
-  <si>
-    <t>请求数据</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>实际结果</t>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>请求uri</t>
+  </si>
+  <si>
+    <t>请求方法</t>
+  </si>
+  <si>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>发送数据</t>
+  </si>
+  <si>
+    <t>返回状态码</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>api_auth</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>输入正确的用户名密码</t>
+  </si>
+  <si>
+    <t>/api/v1/auth/</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{Content-Type:"application/x-www-form-urlencoded"}</t>
+  </si>
+  <si>
+    <t>{username:"AutoLink",password:"123456"}</t>
+  </si>
+  <si>
+    <t>{"status": "success", "msg": "login success"}</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>输入错误或不存在的用户名密码</t>
+  </si>
+  <si>
+    <t>{username:"AutoLink",password:"1234567"}</t>
+  </si>
+  <si>
+    <t>{"status": "fail", "msg": "login fail"}</t>
+  </si>
+  <si>
+    <t>退出成功</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"status": "success", "msg": "logout success"}</t>
+  </si>
+  <si>
+    <t>api_user</t>
+  </si>
+  <si>
+    <t>创建用户成功</t>
+  </si>
+  <si>
+    <t>创建的用户用户名不存在</t>
+  </si>
+  <si>
+    <t>/api/v1/user/</t>
+  </si>
+  <si>
+    <t>{method:"create",fullname:"test",username:"test",password:"123456",email:"test@xx.com"}</t>
+  </si>
+  <si>
+    <t>{"status": "success",    "msg": "创建用户成功"}</t>
+  </si>
+  <si>
+    <t>创建用户失败</t>
+  </si>
+  <si>
+    <t>创建的用户用户名已存在</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   {"status": "fail","msg": "用户名称重复，创建失败"} </t>
+  </si>
+  <si>
+    <t>修改用户成功</t>
+  </si>
+  <si>
+    <t>修改已存在的用户</t>
+  </si>
+  <si>
+    <t>创建一个用户</t>
+  </si>
+  <si>
+    <t>{method:"edit",fullname:"test",username:"test",password:"123456",email:"test@xx.com",new_password:"123456"}</t>
+  </si>
+  <si>
+    <t>{"status": "success", "msg": "用户信息修改成功"}</t>
+  </si>
+  <si>
+    <t>修改用户失败</t>
+  </si>
+  <si>
+    <t>修改输入用户原始密码错误</t>
+  </si>
+  <si>
+    <t>构造一组数据</t>
+  </si>
+  <si>
+    <t>{"status": "fail", "msg": "原始密码错误"}</t>
+  </si>
+  <si>
+    <t>输入的用户名不存在</t>
+  </si>
+  <si>
+    <t>{"status": "fail", "msg": "用户不存在"}</t>
+  </si>
+  <si>
+    <t>删除用户成功</t>
+  </si>
+  <si>
+    <t>删除存在的用户，且用户下不存在项目</t>
+  </si>
+  <si>
+    <t>新建一个用户</t>
+  </si>
+  <si>
+    <t>{method:"delete",username:"Test_Api"}</t>
+  </si>
+  <si>
+    <t>{"status": "success", "msg": "用户删除成功"}</t>
+  </si>
+  <si>
+    <t>删除用户失败</t>
+  </si>
+  <si>
+    <t>用户存在，且用户下存在项目</t>
+  </si>
+  <si>
+    <t>新建一个用户，该用户新建一个项目（？？：项目指定用户了？谁建就是谁的？？？a：谁建的就是谁的）（前置条件需要调用project接口）</t>
+  </si>
+  <si>
+    <t>{"status": "fail", "msg": "请先删除该用户拥有的项目"}</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>{"status": "fail", "msg": "用户不存在，删除失败"}</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -59,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -73,8 +217,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,36 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,99 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,13 +377,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +479,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,140 +561,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -427,13 +571,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,22 +620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,16 +629,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,51 +663,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,105 +742,111 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,50 +1197,474 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>201</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>201</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2">
+        <v>201</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="120" spans="1:12">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>201</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="120" spans="1:12">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2">
+        <v>201</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="144" spans="1:12">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>201</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="84" spans="1:12">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2">
+        <v>201</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="84" spans="1:12">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2">
+        <v>201</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="84" spans="1:12">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2">
+        <v>201</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="168" spans="1:12">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2">
+        <v>201</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="84" spans="1:12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2">
+        <v>201</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>编号</t>
   </si>
@@ -63,7 +63,7 @@
     <t>输入正确的用户名密码</t>
   </si>
   <si>
-    <t>/api/v1/auth/</t>
+    <t>http://127.0.0.1:8000/login</t>
   </si>
   <si>
     <t>post</t>
@@ -72,7 +72,7 @@
     <t>{Content-Type:"application/x-www-form-urlencoded"}</t>
   </si>
   <si>
-    <t>{username:"AutoLink",password:"123456"}</t>
+    <t>user1</t>
   </si>
   <si>
     <t>{"status": "success", "msg": "login success"}</t>
@@ -87,7 +87,7 @@
     <t>输入错误或不存在的用户名密码</t>
   </si>
   <si>
-    <t>{username:"AutoLink",password:"1234567"}</t>
+    <t>get</t>
   </si>
   <si>
     <t>{"status": "fail", "msg": "login fail"}</t>
@@ -96,9 +96,6 @@
     <t>退出成功</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>{"status": "success", "msg": "logout success"}</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>创建的用户用户名不存在</t>
   </si>
   <si>
-    <t>/api/v1/user/</t>
-  </si>
-  <si>
-    <t>{method:"create",fullname:"test",username:"test",password:"123456",email:"test@xx.com"}</t>
-  </si>
-  <si>
     <t>{"status": "success",    "msg": "创建用户成功"}</t>
   </si>
   <si>
@@ -138,7 +129,7 @@
     <t>创建一个用户</t>
   </si>
   <si>
-    <t>{method:"edit",fullname:"test",username:"test",password:"123456",email:"test@xx.com",new_password:"123456"}</t>
+    <t>user2</t>
   </si>
   <si>
     <t>{"status": "success", "msg": "用户信息修改成功"}</t>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t>新建一个用户</t>
-  </si>
-  <si>
-    <t>{method:"delete",username:"Test_Api"}</t>
   </si>
   <si>
     <t>{"status": "success", "msg": "用户删除成功"}</t>
@@ -205,8 +193,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,6 +207,61 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +276,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +311,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,68 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -331,14 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -353,20 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,43 +365,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,55 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,67 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,32 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,17 +613,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,14 +1187,15 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
@@ -1251,7 +1240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="84" spans="1:12">
+    <row r="2" ht="48" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1265,7 +1254,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1287,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="84" spans="1:12">
+    <row r="3" ht="48" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1301,17 +1290,17 @@
         <v>22</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2">
         <v>201</v>
@@ -1323,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:12">
+    <row r="4" ht="36" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1335,40 +1324,42 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="2">
         <v>201</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="120" spans="1:12">
+    <row r="5" ht="48" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -1377,34 +1368,34 @@
         <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2">
         <v>201</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="120" spans="1:12">
+    <row r="6" ht="48" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1413,36 +1404,36 @@
         <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2">
         <v>201</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="144" spans="1:12">
+    <row r="7" ht="48" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
@@ -1451,36 +1442,36 @@
         <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2">
         <v>201</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="84" spans="1:12">
+    <row r="8" ht="48" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
@@ -1488,35 +1479,37 @@
       <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J8" s="2">
         <v>201</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="84" spans="1:12">
+    <row r="9" ht="48" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1524,35 +1517,37 @@
       <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J9" s="2">
         <v>201</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="84" spans="1:12">
+    <row r="10" ht="48" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1561,13 +1556,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2">
         <v>201</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>20</v>
@@ -1578,19 +1573,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -1599,34 +1594,34 @@
         <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2">
         <v>201</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="84" spans="1:12">
+    <row r="12" ht="48" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
+      <c r="F12" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -1635,13 +1630,13 @@
         <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2">
         <v>201</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>20</v>
@@ -1652,19 +1647,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="20640" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,33 +63,36 @@
     <t>输入正确的用户名密码</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/login</t>
+    <t>http://127.0.0.1:8000/login/</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{Content-Type:"application/x-www-form-urlencoded"}</t>
+    <t>{'Content-Type':'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>{"status": "success", "msg": "login success"}</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>输入错误或不存在的用户名密码</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>user1</t>
   </si>
   <si>
-    <t>{"status": "success", "msg": "login success"}</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t>输入错误或不存在的用户名密码</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>{"status": "fail", "msg": "login fail"}</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
   </si>
   <si>
     <t>创建一个用户</t>
-  </si>
-  <si>
-    <t>user2</t>
   </si>
   <si>
     <t>{"status": "success", "msg": "用户信息修改成功"}</t>
@@ -212,6 +212,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -221,140 +349,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,132 +365,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,54 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,21 +594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +616,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -638,25 +632,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,19 +691,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,112 +712,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,14 +1187,14 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
@@ -1300,13 +1300,13 @@
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2">
         <v>201</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>20</v>
@@ -1320,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1332,13 +1332,13 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2">
         <v>201</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>20</v>
@@ -1349,13 +1349,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
@@ -1368,13 +1368,13 @@
         <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>201</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>20</v>
@@ -1385,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
@@ -1404,13 +1404,13 @@
         <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2">
         <v>201</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>20</v>
@@ -1421,16 +1421,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1442,7 +1442,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2">
         <v>201</v>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1480,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2">
         <v>201</v>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1518,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2">
         <v>201</v>
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -1556,7 +1556,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2">
         <v>201</v>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
@@ -1594,7 +1594,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2">
         <v>201</v>
@@ -1611,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -1630,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2">
         <v>201</v>
@@ -1647,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
@@ -1658,7 +1658,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
